--- a/Stocks/emeis.xlsx
+++ b/Stocks/emeis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{F1BE6AA8-B2AA-48C5-9AF0-D98CE5071E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A071BDF-F50E-43B8-A65D-4417522672D6}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="4605" windowWidth="15330" windowHeight="10770" xr2:uid="{C5D7E9B3-ED19-47E4-9E69-CAD18F1C2BD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5D7E9B3-ED19-47E4-9E69-CAD18F1C2BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
